--- a/data/clone.xlsx
+++ b/data/clone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_clone" sheetId="1" r:id="rId1"/>
@@ -217,14 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clone of nasshare type should be modified name of 31 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clone of nasshare type should be modified name of 32 char</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clone -v -i 0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -288,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>clone -a umount -i 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>clone -v -i 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -519,6 +507,18 @@
   </si>
   <si>
     <t>Clone id=[100] is not existed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone of volume type should be modified name of 31 char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone of volume type should be modified name of 32 char</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone -a unmount -i 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1016,7 +1016,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
@@ -1024,7 +1024,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -1032,7 +1032,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
@@ -1056,7 +1056,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
@@ -1064,7 +1064,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
@@ -1072,7 +1072,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1140,7 +1140,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1196,7 +1196,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1204,7 +1204,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1285,7 +1285,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1392,7 +1392,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1443,7 +1443,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1477,10 +1477,10 @@
         <v>53</v>
       </c>
       <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -1494,10 +1494,10 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -1505,16 +1505,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -1522,16 +1522,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -1576,30 +1576,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
         <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1613,8 +1613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1641,30 +1641,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
       <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" t="s">
         <v>74</v>
-      </c>
-      <c r="D2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1697,18 +1697,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1750,30 +1750,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1806,130 +1806,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
         <v>89</v>
-      </c>
-      <c r="B2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/data/clone.xlsx
+++ b/data/clone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="add_clone" sheetId="1" r:id="rId1"/>
@@ -13,18 +13,17 @@
     <sheet name="mod_clone" sheetId="14" r:id="rId4"/>
     <sheet name="export_unexport_clone" sheetId="16" r:id="rId5"/>
     <sheet name="mount_umount_clone" sheetId="17" r:id="rId6"/>
-    <sheet name="promote_clone" sheetId="18" r:id="rId7"/>
-    <sheet name="del_clone" sheetId="15" r:id="rId8"/>
-    <sheet name="invalid_setting_parameter" sheetId="8" r:id="rId9"/>
-    <sheet name="invalid_option" sheetId="9" r:id="rId10"/>
-    <sheet name="missing_parameter" sheetId="10" r:id="rId11"/>
+    <sheet name="del_clone" sheetId="15" r:id="rId7"/>
+    <sheet name="invalid_setting_parameter" sheetId="8" r:id="rId8"/>
+    <sheet name="invalid_option" sheetId="9" r:id="rId9"/>
+    <sheet name="missing_parameter" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="130">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,22 +295,6 @@
   </si>
   <si>
     <t>Status: Un-Mounted</t>
-  </si>
-  <si>
-    <t>clone -a promote -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clone -a promote -i 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clone of nasshare type should be promoted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clone of volume type should be promoted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>clone -a del -i 0</t>
@@ -986,106 +969,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="61.5" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1108,7 +991,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1116,7 +999,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1124,7 +1007,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -1132,7 +1015,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -1140,7 +1023,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1148,7 +1031,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -1156,7 +1039,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -1164,7 +1047,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1172,7 +1055,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -1180,7 +1063,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
@@ -1188,7 +1071,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1196,7 +1079,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
@@ -1204,7 +1087,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1285,7 +1168,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C3" t="s">
         <v>19</v>
@@ -1392,7 +1275,7 @@
         <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -1508,7 +1391,7 @@
         <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
@@ -1525,7 +1408,7 @@
         <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
@@ -1613,7 +1496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -1655,7 +1538,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
         <v>73</v>
@@ -1675,55 +1558,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="46" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1750,30 +1588,30 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" t="s">
-        <v>84</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
         <v>81</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1782,7 +1620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
@@ -1806,130 +1644,230 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="61.5" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>98</v>
       </c>
-      <c r="B17" t="s">
-        <v>91</v>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data/clone.xlsx
+++ b/data/clone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="884" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="add_clone" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="131">
   <si>
     <t>send command</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -502,6 +502,10 @@
   </si>
   <si>
     <t>clone -a unmount -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,127 +973,169 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="40.25" customWidth="1"/>
-    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>105</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>106</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>107</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>109</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>108</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>111</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>112</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>113</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>114</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>115</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>116</v>
       </c>
       <c r="B13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>117</v>
       </c>
       <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1560,8 +1606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,151 +1668,202 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="64.375" customWidth="1"/>
-    <col min="2" max="2" width="33.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>83</v>
       </c>
       <c r="B3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>88</v>
       </c>
       <c r="B6" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>123</v>
       </c>
       <c r="B7" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>118</v>
       </c>
       <c r="B8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>89</v>
       </c>
       <c r="B9" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>90</v>
       </c>
       <c r="B10" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>120</v>
       </c>
       <c r="B12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>91</v>
       </c>
       <c r="B14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>93</v>
       </c>
       <c r="B16" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>94</v>
       </c>
       <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1778,95 +1875,125 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.5" customWidth="1"/>
-    <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="2" max="3" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>98</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>99</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>100</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>102</v>
       </c>
       <c r="B8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>103</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>104</v>
       </c>
       <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>2</v>
       </c>
     </row>
